--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social confidencial - escala</t>
+          <t>Apoyo social confidencial - escala (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,48</t>
+          <t>29,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,62</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,94</t>
+          <t>29,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,57; 30,18</t>
+          <t>28,57; 30,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,01; 28,67</t>
+          <t>27,01; 28,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 29,19</t>
+          <t>28,25; 29,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,69; 28,75</t>
+          <t>27,66; 28,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,4; 29,4</t>
+          <t>28,56; 29,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,58; 28,5</t>
+          <t>27,67; 28,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,57</t>
+          <t>29,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>29,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,43</t>
+          <t>29,35</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,23; 29,9</t>
+          <t>28,99; 29,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,45; 32,77</t>
+          <t>30,44; 32,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,96; 29,57</t>
+          <t>28,92; 29,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,15; 31,34</t>
+          <t>30,14; 31,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 29,65</t>
+          <t>29,09; 29,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,42; 31,99</t>
+          <t>30,47; 32,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,29</t>
+          <t>30,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,1</t>
+          <t>30,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,18</t>
+          <t>30,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,81; 30,75</t>
+          <t>29,7; 30,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,34; 32,17</t>
+          <t>31,35; 32,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,7; 30,5</t>
+          <t>29,61; 30,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,36; 32,04</t>
+          <t>31,29; 32,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,86; 30,48</t>
+          <t>29,85; 30,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,48; 31,99</t>
+          <t>31,44; 32,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,73</t>
+          <t>29,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,38</t>
+          <t>29,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,54</t>
+          <t>29,57</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,46; 29,99</t>
+          <t>29,29; 29,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,46; 32,43</t>
+          <t>30,43; 32,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,16; 29,62</t>
+          <t>29,2; 29,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,1; 31,01</t>
+          <t>30,08; 30,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 29,71</t>
+          <t>29,36; 29,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,36; 31,69</t>
+          <t>30,35; 31,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27,93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28,55</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>29,45</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>28,55</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>28,09</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29,31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>28,9</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>28,22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>29,31</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>28,03</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>29,11</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,09</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>28,97</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>27,11; 28,73</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27,89; 29,16</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>28,57; 30,36</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>27,01; 28,7</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>27,89; 29,16</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>27,52; 28,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28,81; 29,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>28,25; 29,55</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>27,66; 28,75</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>28,81; 29,75</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>27,64; 28,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28,58; 29,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>28,56; 29,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>27,67; 28,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>28,58; 29,36</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>30,36</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30,66</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>29,39</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>31,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>30,66</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>30,15</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30,75</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>29,3</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,56</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,75</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>30,25</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30,71</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>29,35</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>30,97</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>30,71</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>30,02; 30,66</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30,4; 30,96</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>28,99; 29,75</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>30,44; 32,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>30,4; 30,96</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>29,8; 30,42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30,45; 31,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>28,92; 29,65</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>30,14; 31,43</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>30,45; 31,0</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>30,03; 30,45</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30,52; 30,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>29,09; 29,59</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>30,47; 32,0</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>30,52; 30,92</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>31,59</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30,52</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>30,33</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>31,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>30,52</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>31,66</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31,53</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>30,11</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>31,71</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,53</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>31,62</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,05</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>30,21</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>31,75</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>31,05</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>31,12; 31,97</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30,08; 30,96</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>29,7; 30,88</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>31,35; 32,13</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>30,08; 30,96</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>31,28; 31,98</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31,18; 31,83</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>29,61; 30,56</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>31,29; 32,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>31,18; 31,83</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>31,32; 31,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30,79; 31,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>29,85; 30,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>31,44; 32,0</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>30,79; 31,32</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>30,36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30,31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>29,66</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>31,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>30,31</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>30,09</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30,71</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>29,49</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30,36</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>30,71</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>30,22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30,52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>29,57</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30,71</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>30,52</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>30,09; 30,6</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30,08; 30,53</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>29,29; 29,93</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>30,43; 32,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>30,08; 30,53</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>29,87; 30,3</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30,49; 30,92</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>29,2; 29,73</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>30,08; 30,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>30,49; 30,92</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>30,02; 30,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30,37; 30,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>29,36; 29,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>30,35; 31,7</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 30,68</t>
         </is>
       </c>
     </row>
